--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11415.09687523993</v>
+        <v>2271604.278172746</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11415.09687523993</v>
+        <v>2271604.278172746</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37199.56709711812</v>
+        <v>2242424.842214688</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37199.56709711812</v>
+        <v>2242424.842214688</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265687910.020098</v>
+        <v>50348961.30563111</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11784.68771462467</v>
+        <v>1197610.60435755</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22644.24722527033</v>
+        <v>2236596.66263194</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33503.80673591598</v>
+        <v>3275582.720906332</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45515.41788969806</v>
+        <v>4252145.071252489</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57527.02904348011</v>
+        <v>5228707.421598645</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69538.64019726215</v>
+        <v>6205269.771944799</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>81611.54589649876</v>
+        <v>7184668.776836406</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>93670.19705028085</v>
+        <v>8161231.127182558</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>105544.4154289408</v>
+        <v>9125521.373674752</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117385.8308991399</v>
+        <v>10107528.41397383</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>129179.6723317883</v>
+        <v>11089895.48524553</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>140972.8751339247</v>
+        <v>12072135.46904533</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>152766.0779360611</v>
+        <v>13054375.45284513</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>164633.594792704</v>
+        <v>14030865.97139394</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>176557.6201064867</v>
+        <v>14991989.80812676</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>217</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>36</v>
